--- a/docentes/Santiago Hernández Mariana - Estadisticos 20242.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -67,55 +67,22 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>CRESCENCIO</t>
-  </si>
-  <si>
     <t>HERRERA</t>
   </si>
   <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
     <t>JENKINS</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>ACOSTA</t>
   </si>
   <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
-    <t>DIEGO ARMANDO</t>
-  </si>
-  <si>
     <t>MIGUEL ANTONIO</t>
   </si>
   <si>
-    <t>CRISTINA YAJANI</t>
-  </si>
-  <si>
     <t>ARTHUR RICHARD</t>
-  </si>
-  <si>
-    <t>JORGE IVAN</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
   </si>
 </sst>
 </file>
@@ -587,16 +554,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>90.31999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -655,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>77.42</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +644,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -709,16 +679,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920033</v>
+        <v>22330051920038</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -727,21 +697,21 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920038</v>
+        <v>22330051920189</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -750,98 +720,6 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22330051920336</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>22330051920189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>22330051920327</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>22330051920049</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
         <v>3</v>
       </c>
     </row>
